--- a/data/trans_dic/IP16A98-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A98-Edad-trans_dic.xlsx
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>17,97%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,46; 33,4</t>
+          <t>7,91; 24,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,08; 40,64</t>
+          <t>12,31; 32,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,14; 34,54</t>
+          <t>8,33; 28,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 22,47</t>
+          <t>3,21; 18,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,33; 31,75</t>
+          <t>5,68; 22,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,29; 30,69</t>
+          <t>12,22; 30,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,6; 24,54</t>
+          <t>7,33; 18,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 32,7</t>
+          <t>11,75; 25,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,35; 29,2</t>
+          <t>12,5; 25,29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>20,46%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 24,76</t>
+          <t>11,46; 33,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,31; 32,16</t>
+          <t>17,08; 40,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,33; 28,22</t>
+          <t>13,14; 34,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 18,4</t>
+          <t>6,23; 22,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 22,65</t>
+          <t>10,33; 31,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,22; 30,57</t>
+          <t>11,29; 30,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 18,25</t>
+          <t>10,6; 24,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,75; 25,0</t>
+          <t>16,19; 32,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,5; 25,29</t>
+          <t>14,35; 29,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A98-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A98-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>24,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>18,08%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,63; 20,45</t>
+          <t>5,18; 23,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 22,59</t>
+          <t>5,06; 28,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,48; 25,34</t>
+          <t>5,53; 26,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,06; 23,87</t>
+          <t>7,39; 26,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 29,92</t>
+          <t>6,88; 29,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 30,91</t>
+          <t>10,18; 42,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,66; 18,85</t>
+          <t>7,48; 21,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,08; 23,4</t>
+          <t>7,62; 24,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,18; 23,75</t>
+          <t>10,49; 30,07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>16,96%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 24,76</t>
+          <t>6,71; 20,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,31; 32,16</t>
+          <t>9,67; 29,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,33; 28,22</t>
+          <t>10,45; 29,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 18,4</t>
+          <t>4,75; 18,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 22,65</t>
+          <t>9,5; 30,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 30,57</t>
+          <t>7,7; 27,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,33; 18,25</t>
+          <t>7,56; 17,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 25,0</t>
+          <t>11,86; 26,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,5; 25,29</t>
+          <t>10,67; 24,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>17,94%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,46; 33,4</t>
+          <t>9,73; 34,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,08; 40,64</t>
+          <t>14,51; 39,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,14; 34,54</t>
+          <t>5,36; 23,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 22,47</t>
+          <t>6,69; 29,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,33; 31,75</t>
+          <t>7,75; 27,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,29; 30,69</t>
+          <t>14,14; 37,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 24,54</t>
+          <t>11,28; 29,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,19; 32,7</t>
+          <t>12,62; 28,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,35; 29,2</t>
+          <t>11,54; 26,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>23,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>21,09%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 20,32</t>
+          <t>10,71; 37,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,75; 26,83</t>
+          <t>11,42; 41,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,42; 25,54</t>
+          <t>14,14; 42,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,16; 16,92</t>
+          <t>2,23; 19,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,59; 22,82</t>
+          <t>7,6; 35,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,54; 25,81</t>
+          <t>9,01; 30,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,65; 17,31</t>
+          <t>7,74; 24,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,93; 22,79</t>
+          <t>13,01; 32,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,0; 23,46</t>
+          <t>13,78; 31,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15,19%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20,32%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18,46%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12,08%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19,24%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13,69%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18,63%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10,24; 20,64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14,5; 26,46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13,28; 25,52</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8,27; 16,82</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11,93; 23,15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 25,77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10,74; 17,79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14,61; 23,18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14,72; 23,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>

--- a/data/trans_dic/IP16A98-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A98-Edad-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 23,31</t>
+          <t>5,2; 23,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 28,16</t>
+          <t>5,18; 27,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 26,52</t>
+          <t>5,77; 27,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 26,16</t>
+          <t>7,17; 27,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 29,18</t>
+          <t>6,89; 28,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,18; 42,92</t>
+          <t>10,62; 44,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,48; 21,0</t>
+          <t>8,02; 20,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,62; 24,53</t>
+          <t>8,68; 24,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,49; 30,07</t>
+          <t>10,6; 29,29</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 20,42</t>
+          <t>7,36; 21,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,67; 29,53</t>
+          <t>10,17; 29,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,45; 29,23</t>
+          <t>10,0; 29,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 18,51</t>
+          <t>4,88; 17,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,5; 30,05</t>
+          <t>10,49; 30,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 27,25</t>
+          <t>8,14; 27,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,56; 17,38</t>
+          <t>7,4; 17,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,86; 26,07</t>
+          <t>11,81; 26,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,67; 24,56</t>
+          <t>11,0; 23,66</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,73; 34,29</t>
+          <t>8,45; 35,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,51; 39,72</t>
+          <t>14,37; 39,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 23,27</t>
+          <t>5,82; 23,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 29,51</t>
+          <t>7,07; 30,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 27,92</t>
+          <t>6,87; 28,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 37,34</t>
+          <t>12,55; 37,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,28; 29,01</t>
+          <t>10,43; 28,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,62; 28,66</t>
+          <t>13,29; 29,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,54; 26,3</t>
+          <t>11,2; 26,08</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,71; 37,74</t>
+          <t>10,85; 38,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,42; 41,62</t>
+          <t>12,2; 42,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,14; 42,76</t>
+          <t>13,97; 40,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 19,34</t>
+          <t>2,26; 19,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,6; 35,1</t>
+          <t>7,91; 35,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,01; 30,43</t>
+          <t>8,52; 32,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,74; 24,77</t>
+          <t>7,94; 23,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,01; 32,35</t>
+          <t>12,3; 32,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,78; 31,65</t>
+          <t>13,78; 31,54</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,24; 20,64</t>
+          <t>11,11; 21,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 26,46</t>
+          <t>14,93; 26,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,28; 25,52</t>
+          <t>13,89; 27,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,27; 16,82</t>
+          <t>8,34; 17,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,93; 23,15</t>
+          <t>11,8; 22,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,05; 25,77</t>
+          <t>14,11; 26,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,74; 17,79</t>
+          <t>10,69; 17,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,61; 23,18</t>
+          <t>15,09; 22,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,72; 23,63</t>
+          <t>14,93; 23,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A98-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A98-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16,01%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24,29%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>11,39%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>13,85%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,47%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>15,23%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>16,01%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>17,82%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,2; 23,33</t>
+          <t>7,32; 26,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 27,58</t>
+          <t>6,86; 28,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 27,24</t>
+          <t>10,74; 45,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 27,2</t>
+          <t>4,17; 23,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,89; 28,66</t>
+          <t>5,17; 31,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,62; 44,72</t>
+          <t>5,42; 26,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,02; 20,69</t>
+          <t>7,41; 21,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,68; 24,11</t>
+          <t>7,77; 23,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,6; 29,29</t>
+          <t>10,13; 28,34</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18,53%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14,52%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>12,85%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>17,72%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>18,34%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,98%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>18,53%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>16,76%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 21,66</t>
+          <t>3,84; 17,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,17; 29,79</t>
+          <t>10,02; 29,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 29,4</t>
+          <t>6,81; 24,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 17,86</t>
+          <t>7,42; 21,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,49; 30,42</t>
+          <t>9,21; 28,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,14; 27,16</t>
+          <t>10,18; 30,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 17,09</t>
+          <t>6,95; 17,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 26,03</t>
+          <t>11,91; 25,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,0; 23,66</t>
+          <t>10,77; 24,55</t>
         </is>
       </c>
     </row>
@@ -852,32 +852,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>16,32%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15,47%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>23,08%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>20,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>25,48%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>13,19%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>16,32%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>15,47%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>17,43%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,45; 35,01</t>
+          <t>6,92; 30,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,37; 39,88</t>
+          <t>7,32; 27,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 23,95</t>
+          <t>12,63; 35,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 30,36</t>
+          <t>8,48; 35,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 28,32</t>
+          <t>14,64; 38,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 37,08</t>
+          <t>5,74; 25,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,43; 28,04</t>
+          <t>10,71; 27,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,29; 29,53</t>
+          <t>12,54; 28,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,2; 26,08</t>
+          <t>10,62; 25,59</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17,79%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17,34%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>22,03%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>24,45%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>23,92%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,15%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17,79%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>20,25%</t>
         </is>
       </c>
     </row>
@@ -1015,37 +1015,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 38,52</t>
+          <t>2,24; 19,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,2; 42,38</t>
+          <t>6,47; 33,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,97; 40,73</t>
+          <t>4,99; 36,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 19,55</t>
+          <t>10,43; 38,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,91; 35,63</t>
+          <t>12,35; 42,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,52; 32,36</t>
+          <t>13,68; 40,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,94; 23,77</t>
+          <t>7,54; 23,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,78; 31,54</t>
+          <t>9,39; 32,54</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>12,08%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17,0%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18,42%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>15,19%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>20,32%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>18,46%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>12,08%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>17,0%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 21,09</t>
+          <t>8,16; 16,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,93; 26,11</t>
+          <t>11,59; 22,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,89; 27,1</t>
+          <t>10,46; 27,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,34; 17,46</t>
+          <t>10,93; 20,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,8; 22,73</t>
+          <t>14,75; 26,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,11; 26,39</t>
+          <t>13,19; 25,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,69; 17,74</t>
+          <t>10,65; 17,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,09; 22,73</t>
+          <t>14,93; 22,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,93; 23,91</t>
+          <t>13,66; 24,32</t>
         </is>
       </c>
     </row>
